--- a/documentation/opcodes-completed.xlsx
+++ b/documentation/opcodes-completed.xlsx
@@ -1614,7 +1614,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
+      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.01171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2477,7 +2477,7 @@
       <c r="B17" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="4" t="s">
         <v>267</v>
       </c>
       <c r="D17" s="5" t="s">

--- a/documentation/opcodes-completed.xlsx
+++ b/documentation/opcodes-completed.xlsx
@@ -1613,8 +1613,8 @@
   </sheetPr>
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.01171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2315,7 +2315,7 @@
       <c r="A14" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>216</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -2368,7 +2368,7 @@
       <c r="A15" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>233</v>
       </c>
       <c r="C15" s="4" t="s">

--- a/documentation/opcodes-completed.xlsx
+++ b/documentation/opcodes-completed.xlsx
@@ -1614,7 +1614,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="J24" activeCellId="0" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.01171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2339,7 +2339,7 @@
       <c r="I14" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="4" t="s">
         <v>224</v>
       </c>
       <c r="K14" s="5" t="s">
@@ -2392,7 +2392,7 @@
       <c r="I15" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="4" t="s">
         <v>241</v>
       </c>
       <c r="K15" s="5" t="s">
@@ -2421,7 +2421,7 @@
       <c r="A16" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>250</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -2445,7 +2445,7 @@
       <c r="I16" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="4" t="s">
         <v>258</v>
       </c>
       <c r="K16" s="5" t="s">
@@ -2474,7 +2474,7 @@
       <c r="A17" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -2498,7 +2498,7 @@
       <c r="I17" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="4" t="s">
         <v>274</v>
       </c>
       <c r="K17" s="7" t="s">

--- a/documentation/opcodes-completed.xlsx
+++ b/documentation/opcodes-completed.xlsx
@@ -1614,7 +1614,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J24" activeCellId="0" sqref="J24"/>
+      <selection pane="topLeft" activeCell="M24" activeCellId="0" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.01171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2321,7 +2321,7 @@
       <c r="C14" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>218</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -2374,7 +2374,7 @@
       <c r="C15" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>235</v>
       </c>
       <c r="E15" s="6" t="s">
@@ -2427,7 +2427,7 @@
       <c r="C16" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>252</v>
       </c>
       <c r="E16" s="7" t="s">
@@ -2480,7 +2480,7 @@
       <c r="C17" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>268</v>
       </c>
       <c r="E17" s="6" t="s">

--- a/documentation/opcodes-completed.xlsx
+++ b/documentation/opcodes-completed.xlsx
@@ -1412,7 +1412,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1441,12 +1441,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF99CC"/>
         <bgColor rgb="FFFF8080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -1497,7 +1491,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1527,10 +1521,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1614,7 +1604,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M24" activeCellId="0" sqref="M24"/>
+      <selection pane="topLeft" activeCell="J32" activeCellId="0" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.01171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2324,7 +2314,7 @@
       <c r="D14" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>219</v>
       </c>
       <c r="F14" s="5" t="s">
@@ -2345,7 +2335,7 @@
       <c r="K14" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="L14" s="4" t="s">
         <v>226</v>
       </c>
       <c r="M14" s="5" t="s">
@@ -2398,7 +2388,7 @@
       <c r="K15" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="L15" s="4" t="s">
         <v>243</v>
       </c>
       <c r="M15" s="6" t="s">
@@ -2430,7 +2420,7 @@
       <c r="D16" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="4" t="s">
         <v>253</v>
       </c>
       <c r="F16" s="5" t="s">
@@ -2451,10 +2441,10 @@
       <c r="K16" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="L16" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="M16" s="7" t="s">
+      <c r="M16" s="4" t="s">
         <v>261</v>
       </c>
       <c r="N16" s="5" t="s">
@@ -2501,10 +2491,10 @@
       <c r="J17" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L17" s="4" t="s">
         <v>276</v>
       </c>
       <c r="M17" s="6" t="s">
@@ -2516,7 +2506,7 @@
       <c r="O17" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="P17" s="8" t="s">
+      <c r="P17" s="7" t="s">
         <v>279</v>
       </c>
       <c r="Q17" s="5" t="s">

--- a/documentation/opcodes-completed.xlsx
+++ b/documentation/opcodes-completed.xlsx
@@ -1412,7 +1412,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1433,20 +1433,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor rgb="FFFFFF99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF99CC"/>
         <bgColor rgb="FFFF8080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
-        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1491,7 +1479,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1513,14 +1501,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1604,7 +1584,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J32" activeCellId="0" sqref="J32"/>
+      <selection pane="topLeft" activeCell="S11" activeCellId="0" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.01171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2317,7 +2297,7 @@
       <c r="E14" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>220</v>
       </c>
       <c r="G14" s="4" t="s">
@@ -2326,31 +2306,31 @@
       <c r="H14" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="4" t="s">
         <v>223</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="4" t="s">
         <v>225</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="M14" s="5" t="s">
+      <c r="M14" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="N14" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="O14" s="5" t="s">
+      <c r="O14" s="4" t="s">
         <v>229</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="Q14" s="5" t="s">
+      <c r="Q14" s="4" t="s">
         <v>231</v>
       </c>
     </row>
@@ -2367,10 +2347,10 @@
       <c r="D15" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>237</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -2379,31 +2359,31 @@
       <c r="H15" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="4" t="s">
         <v>240</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="4" t="s">
         <v>242</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="M15" s="6" t="s">
+      <c r="M15" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="N15" s="5" t="s">
+      <c r="N15" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="O15" s="5" t="s">
+      <c r="O15" s="4" t="s">
         <v>246</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="Q15" s="5" t="s">
+      <c r="Q15" s="4" t="s">
         <v>248</v>
       </c>
     </row>
@@ -2423,7 +2403,7 @@
       <c r="E16" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>254</v>
       </c>
       <c r="G16" s="4" t="s">
@@ -2432,13 +2412,13 @@
       <c r="H16" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="4" t="s">
         <v>257</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="4" t="s">
         <v>259</v>
       </c>
       <c r="L16" s="4" t="s">
@@ -2447,16 +2427,16 @@
       <c r="M16" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="N16" s="5" t="s">
+      <c r="N16" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="O16" s="5" t="s">
+      <c r="O16" s="4" t="s">
         <v>246</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="Q16" s="5" t="s">
+      <c r="Q16" s="4" t="s">
         <v>264</v>
       </c>
     </row>
@@ -2473,10 +2453,10 @@
       <c r="D17" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>270</v>
       </c>
       <c r="G17" s="4" t="s">
@@ -2485,7 +2465,7 @@
       <c r="H17" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="4" t="s">
         <v>273</v>
       </c>
       <c r="J17" s="4" t="s">
@@ -2497,19 +2477,19 @@
       <c r="L17" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="M17" s="6" t="s">
+      <c r="M17" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="N17" s="5" t="s">
+      <c r="N17" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="O17" s="5" t="s">
+      <c r="O17" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="P17" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="Q17" s="5" t="s">
+      <c r="Q17" s="4" t="s">
         <v>280</v>
       </c>
     </row>
